--- a/Data/mariculture_algae_province.xlsx
+++ b/Data/mariculture_algae_province.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AquaFish\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8250" tabRatio="872" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8256" tabRatio="872" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="43" r:id="rId1"/>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="538">
   <si>
     <t>4</t>
   </si>
@@ -1624,9 +1629,6 @@
   </si>
   <si>
     <t xml:space="preserve">  8,283  </t>
-  </si>
-  <si>
-    <t>all agae</t>
   </si>
   <si>
     <t>laminaria</t>
@@ -1668,7 +1670,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1983,7 +1985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1993,49 +1995,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2049,12 +2051,12 @@
         <v>152171</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2071,7 +2073,7 @@
         <v>27575</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2108,7 +2110,7 @@
         <v>154737</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2128,7 +2130,7 @@
         <v>48940</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2151,12 +2153,12 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2180,44 +2182,44 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" t="s">
         <v>526</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2313,7 +2315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2345,7 +2347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2377,7 +2379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2409,7 +2411,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2473,7 +2475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2537,7 +2539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2579,44 +2581,44 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" t="s">
         <v>526</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2680,7 +2682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2744,7 +2746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2808,7 +2810,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2840,7 +2842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2977,45 +2979,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3044,7 +3046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3102,7 +3104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3160,7 +3162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3218,7 +3220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3276,7 +3278,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3305,7 +3307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3347,99 +3349,99 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3453,51 +3455,51 @@
         <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3508,7 +3510,7 @@
         <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E6" t="s">
         <v>218</v>
@@ -3517,16 +3519,16 @@
         <v>223</v>
       </c>
       <c r="G6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3546,10 +3548,10 @@
         <v>224</v>
       </c>
       <c r="G7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I7" s="1">
         <v>3891</v>
@@ -3558,7 +3560,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3581,16 +3583,16 @@
         <v>230</v>
       </c>
       <c r="H8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I8" s="1">
         <v>4783</v>
       </c>
       <c r="J8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3610,16 +3612,16 @@
         <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H9">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3639,7 +3641,7 @@
         <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H10">
         <v>49</v>
@@ -3648,7 +3650,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3659,10 +3661,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F11" t="s">
         <v>228</v>
@@ -3671,13 +3673,13 @@
         <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3688,10 +3690,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F12" t="s">
         <v>229</v>
@@ -3700,10 +3702,10 @@
         <v>232</v>
       </c>
       <c r="H12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -3719,26 +3721,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3755,7 +3757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3772,7 +3774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3789,7 +3791,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3823,7 +3825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3857,7 +3859,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3891,7 +3893,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3938,26 +3940,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4030,7 +4032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4047,7 +4049,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4064,7 +4066,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4095,7 +4097,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4109,7 +4111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4136,26 +4138,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4166,7 +4168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4177,7 +4179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4200,7 +4202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4214,7 +4216,7 @@
         <v>7472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4231,7 +4233,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4279,7 +4281,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4290,7 +4292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4317,26 +4319,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4353,7 +4355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4370,7 +4372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4387,7 +4389,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -4404,7 +4406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4438,7 +4440,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4506,7 +4508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4536,26 +4538,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4616,7 +4618,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4633,7 +4635,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4650,7 +4652,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4667,7 +4669,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4692,7 +4694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4716,26 +4718,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -4746,7 +4748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4757,7 +4759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4768,7 +4770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4782,7 +4784,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4790,7 +4792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4824,7 +4826,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4841,7 +4843,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4858,7 +4860,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -4880,7 +4882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4904,51 +4906,51 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4962,12 +4964,12 @@
         <v>161857</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>5383</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5053,7 +5055,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5079,12 +5081,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5111,26 +5113,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -5141,7 +5143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5166,7 +5168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5208,7 +5210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -5225,7 +5227,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5284,7 +5286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5308,23 +5310,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -5338,7 +5340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5394,7 +5396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5464,7 +5466,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5505,23 +5507,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5537,7 +5539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>370</v>
       </c>
@@ -5561,7 +5563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5572,7 +5574,7 @@
         <v>93816</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -5588,7 +5590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -5596,7 +5598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5610,7 +5612,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5624,7 +5626,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -5632,7 +5634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>16831</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -5654,7 +5656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5668,7 +5670,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>375</v>
       </c>
@@ -5676,7 +5678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -5684,7 +5686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -5692,7 +5694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -5711,7 +5713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -5719,7 +5721,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>378</v>
       </c>
@@ -5727,7 +5729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>379</v>
       </c>
@@ -5735,7 +5737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>380</v>
       </c>
@@ -5743,7 +5745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>382</v>
       </c>
@@ -5759,7 +5761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>383</v>
       </c>
@@ -5767,7 +5769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>384</v>
       </c>
@@ -5775,7 +5777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>385</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -5804,23 +5806,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -5834,7 +5836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5876,7 +5878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5904,7 +5906,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -5918,7 +5920,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -6001,23 +6003,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -6031,7 +6033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -6045,7 +6047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
@@ -6073,7 +6075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>370</v>
       </c>
@@ -6087,7 +6089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -6101,7 +6103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -6143,7 +6145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6157,7 +6159,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -6185,7 +6187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -6213,7 +6215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>375</v>
       </c>
@@ -6241,7 +6243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -6255,7 +6257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -6283,7 +6285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -6297,7 +6299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -6311,7 +6313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>378</v>
       </c>
@@ -6325,7 +6327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>379</v>
       </c>
@@ -6339,7 +6341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>380</v>
       </c>
@@ -6353,7 +6355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>383</v>
       </c>
@@ -6381,7 +6383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>384</v>
       </c>
@@ -6395,7 +6397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>385</v>
       </c>
@@ -6409,7 +6411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -6436,23 +6438,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -6466,7 +6468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -6480,7 +6482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -6494,7 +6496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
@@ -6508,7 +6510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>370</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -6536,7 +6538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -6550,7 +6552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -6564,7 +6566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -6578,7 +6580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6592,7 +6594,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -6620,7 +6622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -6634,7 +6636,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -6648,7 +6650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -6662,7 +6664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>375</v>
       </c>
@@ -6676,7 +6678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -6704,7 +6706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -6718,7 +6720,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -6732,7 +6734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -6746,7 +6748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>378</v>
       </c>
@@ -6760,7 +6762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>379</v>
       </c>
@@ -6774,7 +6776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>380</v>
       </c>
@@ -6788,7 +6790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -6802,7 +6804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>382</v>
       </c>
@@ -6816,7 +6818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>383</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>384</v>
       </c>
@@ -6844,7 +6846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>385</v>
       </c>
@@ -6858,7 +6860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -6885,48 +6887,48 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -6937,17 +6939,17 @@
         <v>48205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -6955,7 +6957,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6969,7 +6971,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -6980,12 +6982,12 @@
         <v>4706</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -6999,15 +7001,15 @@
         <v>6755</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
       <c r="B15" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -7018,22 +7020,22 @@
         <v>126794</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -7044,12 +7046,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -7057,42 +7059,42 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -7110,48 +7112,48 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -7162,22 +7164,22 @@
         <v>51224</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7191,7 +7193,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -7205,12 +7207,12 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -7224,12 +7226,12 @@
         <v>6988</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -7240,22 +7242,22 @@
         <v>154244</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -7266,12 +7268,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -7279,42 +7281,42 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -7332,23 +7334,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -7376,7 +7378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7390,7 +7392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>370</v>
       </c>
@@ -7418,7 +7420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -7432,7 +7434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -7460,7 +7462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -7502,7 +7504,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -7516,7 +7518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -7530,7 +7532,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -7544,7 +7546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -7558,7 +7560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>375</v>
       </c>
@@ -7572,7 +7574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -7586,7 +7588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -7600,7 +7602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -7628,7 +7630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -7642,7 +7644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>378</v>
       </c>
@@ -7656,7 +7658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>379</v>
       </c>
@@ -7670,7 +7672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>380</v>
       </c>
@@ -7684,7 +7686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -7698,7 +7700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>382</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>383</v>
       </c>
@@ -7726,7 +7728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>384</v>
       </c>
@@ -7740,7 +7742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>385</v>
       </c>
@@ -7754,7 +7756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -7781,23 +7783,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -7814,7 +7816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -7831,7 +7833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7848,7 +7850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
@@ -7865,7 +7867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>370</v>
       </c>
@@ -7882,7 +7884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -7916,7 +7918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>443</v>
       </c>
@@ -7933,7 +7935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7950,7 +7952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7964,7 +7966,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -7978,7 +7980,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -7995,7 +7997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -8026,7 +8028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -8043,7 +8045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>375</v>
       </c>
@@ -8060,7 +8062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -8077,7 +8079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -8094,7 +8096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -8108,7 +8110,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -8125,7 +8127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>378</v>
       </c>
@@ -8142,7 +8144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -8159,7 +8161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>380</v>
       </c>
@@ -8176,7 +8178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>381</v>
       </c>
@@ -8193,7 +8195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -8210,7 +8212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>383</v>
       </c>
@@ -8227,7 +8229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>384</v>
       </c>
@@ -8244,7 +8246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>385</v>
       </c>
@@ -8261,7 +8263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -8291,51 +8293,51 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -8349,12 +8351,12 @@
         <v>131000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -8374,7 +8376,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -8397,7 +8399,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -8417,7 +8419,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -8437,7 +8439,7 @@
         <v>51221</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8464,12 +8466,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -8497,23 +8499,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -8530,7 +8532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -8564,7 +8566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
@@ -8581,7 +8583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>370</v>
       </c>
@@ -8598,7 +8600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -8612,7 +8614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -8629,7 +8631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>443</v>
       </c>
@@ -8646,7 +8648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -8663,7 +8665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -8677,7 +8679,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -8691,7 +8693,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -8705,7 +8707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -8719,7 +8721,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -8733,7 +8735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -8747,7 +8749,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>375</v>
       </c>
@@ -8764,7 +8766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -8798,7 +8800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -8812,7 +8814,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>378</v>
       </c>
@@ -8846,7 +8848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -8863,7 +8865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>380</v>
       </c>
@@ -8880,7 +8882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>381</v>
       </c>
@@ -8897,7 +8899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -8914,7 +8916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>383</v>
       </c>
@@ -8931,7 +8933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>384</v>
       </c>
@@ -8948,7 +8950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>385</v>
       </c>
@@ -8965,7 +8967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -8995,23 +8997,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -9025,7 +9027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -9039,7 +9041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -9053,7 +9055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -9067,7 +9069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -9081,7 +9083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -9095,7 +9097,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -9109,7 +9111,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -9123,7 +9125,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -9137,7 +9139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -9151,7 +9153,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -9178,23 +9180,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -9208,7 +9210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -9250,7 +9252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -9264,7 +9266,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -9278,7 +9280,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -9292,7 +9294,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -9306,7 +9308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -9320,7 +9322,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -9345,26 +9347,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -9378,7 +9380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -9392,7 +9394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -9406,7 +9408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>370</v>
       </c>
@@ -9434,7 +9436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -9448,7 +9450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -9462,7 +9464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -9476,7 +9478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -9504,7 +9506,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -9518,7 +9520,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -9532,7 +9534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -9546,7 +9548,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -9560,7 +9562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -9574,7 +9576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>375</v>
       </c>
@@ -9588,7 +9590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -9602,7 +9604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -9616,7 +9618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -9633,7 +9635,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -9647,7 +9649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>378</v>
       </c>
@@ -9661,7 +9663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>512</v>
       </c>
@@ -9675,7 +9677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>379</v>
       </c>
@@ -9689,7 +9691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>380</v>
       </c>
@@ -9703,7 +9705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -9717,7 +9719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>382</v>
       </c>
@@ -9731,7 +9733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>383</v>
       </c>
@@ -9745,7 +9747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>384</v>
       </c>
@@ -9759,7 +9761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>385</v>
       </c>
@@ -9773,7 +9775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -9800,54 +9802,54 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -9861,12 +9863,12 @@
         <v>129858</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -9883,7 +9885,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -9909,7 +9911,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -9929,7 +9931,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>21335</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -9978,12 +9980,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -10010,51 +10012,51 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10068,12 +10070,12 @@
         <v>109605</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -10091,7 +10093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10115,7 +10117,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -10140,7 +10142,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -10158,7 +10160,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -10184,12 +10186,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -10220,46 +10222,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -10270,7 +10272,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10284,12 +10286,12 @@
         <v>82059</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -10306,7 +10308,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10329,7 +10331,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -10352,7 +10354,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -10378,7 +10380,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -10398,12 +10400,12 @@
         <v>46555</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -10430,51 +10432,51 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10488,12 +10490,12 @@
         <v>103062</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -10516,7 +10518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10539,7 +10541,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -10562,7 +10564,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -10588,7 +10590,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -10611,12 +10613,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -10640,44 +10642,44 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" t="s">
         <v>526</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>532</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>533</v>
       </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -10741,7 +10743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10773,7 +10775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -10805,7 +10807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -10837,7 +10839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10869,7 +10871,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -10901,7 +10903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -10933,7 +10935,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -10965,7 +10967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -10997,7 +10999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -11038,48 +11040,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>537</v>
       </c>
       <c r="C1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" t="s">
         <v>526</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>527</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>528</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>529</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>530</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>531</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>532</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>533</v>
       </c>
-      <c r="K1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11114,7 +11116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -11149,7 +11151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -11184,7 +11186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -11219,7 +11221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -11254,7 +11256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -11289,7 +11291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -11324,7 +11326,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -11359,7 +11361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -11394,7 +11396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -11429,7 +11431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
